--- a/datamining/final_data/sorted1972_nltk.xlsx
+++ b/datamining/final_data/sorted1972_nltk.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:RH2"/>
+  <dimension ref="A1:PA2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -442,42 +442,42 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>gifted</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>giftedness</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>gifted</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>the</t>
+          <t>wisdom</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>wisdom</t>
+          <t>creative</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>children</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>creative</t>
+          <t>environment</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>children</t>
+          <t>child</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>your</t>
+          <t>nature</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
@@ -487,377 +487,377 @@
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>to</t>
+          <t>myopia</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>child</t>
+          <t>view</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>nature</t>
+          <t>parent</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>environment</t>
+          <t>school</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>and</t>
+          <t>education</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>parent</t>
+          <t>review</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>on</t>
+          <t>books</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>education</t>
+          <t>'s</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>from</t>
+          <t>origins</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>view</t>
+          <t>intellect</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>myopia</t>
+          <t>pandora—the</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>for</t>
+          <t>perspective</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>how</t>
+          <t>assurances</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>review</t>
+          <t>reviews</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>origins</t>
+          <t>quarterly</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>intellect</t>
+          <t>new</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>school</t>
+          <t>teacher</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
-          <t>books</t>
+          <t>achievement</t>
         </is>
       </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
-          <t>be</t>
+          <t>picture</t>
         </is>
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
-          <t>'s</t>
+          <t>creativity</t>
         </is>
       </c>
       <c r="AF1" s="1" t="inlineStr">
         <is>
-          <t>assurances</t>
+          <t>turned-off</t>
         </is>
       </c>
       <c r="AG1" s="1" t="inlineStr">
         <is>
-          <t>reviews</t>
+          <t>psalmody</t>
         </is>
       </c>
       <c r="AH1" s="1" t="inlineStr">
         <is>
-          <t>it</t>
+          <t>summer</t>
         </is>
       </c>
       <c r="AI1" s="1" t="inlineStr">
         <is>
-          <t>can</t>
+          <t>exploring</t>
         </is>
       </c>
       <c r="AJ1" s="1" t="inlineStr">
         <is>
-          <t>new</t>
+          <t>training</t>
         </is>
       </c>
       <c r="AK1" s="1" t="inlineStr">
         <is>
-          <t>are</t>
+          <t>developmental</t>
         </is>
       </c>
       <c r="AL1" s="1" t="inlineStr">
         <is>
-          <t>teacher</t>
+          <t>bright</t>
         </is>
       </c>
       <c r="AM1" s="1" t="inlineStr">
         <is>
-          <t>perspective</t>
+          <t>average</t>
         </is>
       </c>
       <c r="AN1" s="1" t="inlineStr">
         <is>
-          <t>achievement</t>
+          <t>autonomy</t>
         </is>
       </c>
       <c r="AO1" s="1" t="inlineStr">
         <is>
-          <t>picture</t>
+          <t>adolescents</t>
         </is>
       </c>
       <c r="AP1" s="1" t="inlineStr">
         <is>
-          <t>quarterly</t>
+          <t>tasks</t>
         </is>
       </c>
       <c r="AQ1" s="1" t="inlineStr">
         <is>
-          <t>we</t>
+          <t>together</t>
         </is>
       </c>
       <c r="AR1" s="1" t="inlineStr">
         <is>
-          <t>psalmody</t>
+          <t>approach</t>
         </is>
       </c>
       <c r="AS1" s="1" t="inlineStr">
         <is>
-          <t>some</t>
+          <t>needs</t>
         </is>
       </c>
       <c r="AT1" s="1" t="inlineStr">
         <is>
-          <t>turned-off</t>
+          <t>challenging</t>
         </is>
       </c>
       <c r="AU1" s="1" t="inlineStr">
         <is>
-          <t>creativity</t>
+          <t>reader</t>
         </is>
       </c>
       <c r="AV1" s="1" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>peers</t>
         </is>
       </c>
       <c r="AW1" s="1" t="inlineStr">
         <is>
-          <t>is</t>
+          <t>isolate</t>
         </is>
       </c>
       <c r="AX1" s="1" t="inlineStr">
         <is>
-          <t>training</t>
+          <t>appreciated</t>
         </is>
       </c>
       <c r="AY1" s="1" t="inlineStr">
         <is>
-          <t>developmental</t>
+          <t>think</t>
         </is>
       </c>
       <c r="AZ1" s="1" t="inlineStr">
         <is>
-          <t>autonomy</t>
+          <t>york</t>
         </is>
       </c>
       <c r="BA1" s="1" t="inlineStr">
         <is>
-          <t>adolescents</t>
+          <t>development</t>
         </is>
       </c>
       <c r="BB1" s="1" t="inlineStr">
         <is>
-          <t>tasks</t>
+          <t>1970</t>
         </is>
       </c>
       <c r="BC1" s="1" t="inlineStr">
         <is>
-          <t>average</t>
+          <t>behavior</t>
         </is>
       </c>
       <c r="BD1" s="1" t="inlineStr">
         <is>
-          <t>bright</t>
+          <t>supermarket</t>
         </is>
       </c>
       <c r="BE1" s="1" t="inlineStr">
         <is>
-          <t>you</t>
+          <t>happened</t>
         </is>
       </c>
       <c r="BF1" s="1" t="inlineStr">
         <is>
-          <t>through</t>
+          <t>high</t>
         </is>
       </c>
       <c r="BG1" s="1" t="inlineStr">
         <is>
-          <t>pandora—the</t>
+          <t>attitudetoward</t>
         </is>
       </c>
       <c r="BH1" s="1" t="inlineStr">
         <is>
-          <t>all</t>
+          <t>style</t>
         </is>
       </c>
       <c r="BI1" s="1" t="inlineStr">
         <is>
-          <t>reader</t>
+          <t>gifteo</t>
         </is>
       </c>
       <c r="BJ1" s="1" t="inlineStr">
         <is>
-          <t>challenging</t>
+          <t>elementary</t>
         </is>
       </c>
       <c r="BK1" s="1" t="inlineStr">
         <is>
-          <t>do</t>
+          <t>power</t>
         </is>
       </c>
       <c r="BL1" s="1" t="inlineStr">
         <is>
-          <t>up</t>
+          <t>world</t>
         </is>
       </c>
       <c r="BM1" s="1" t="inlineStr">
         <is>
-          <t>together</t>
+          <t>works</t>
         </is>
       </c>
       <c r="BN1" s="1" t="inlineStr">
         <is>
-          <t>approach</t>
+          <t>iv</t>
         </is>
       </c>
       <c r="BO1" s="1" t="inlineStr">
         <is>
-          <t>exploring</t>
+          <t>champion</t>
         </is>
       </c>
       <c r="BP1" s="1" t="inlineStr">
         <is>
-          <t>in</t>
+          <t>clues</t>
         </is>
       </c>
       <c r="BQ1" s="1" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>guiding</t>
         </is>
       </c>
       <c r="BR1" s="1" t="inlineStr">
         <is>
-          <t>york</t>
+          <t>deciding</t>
         </is>
       </c>
       <c r="BS1" s="1" t="inlineStr">
         <is>
-          <t>1970</t>
+          <t>help</t>
         </is>
       </c>
       <c r="BT1" s="1" t="inlineStr">
         <is>
-          <t>high</t>
+          <t>grows</t>
         </is>
       </c>
       <c r="BU1" s="1" t="inlineStr">
         <is>
-          <t>gifteo</t>
+          <t>chess</t>
         </is>
       </c>
       <c r="BV1" s="1" t="inlineStr">
         <is>
-          <t>attitudetoward</t>
+          <t>trojan</t>
         </is>
       </c>
       <c r="BW1" s="1" t="inlineStr">
         <is>
-          <t>development</t>
+          <t>horse</t>
         </is>
       </c>
       <c r="BX1" s="1" t="inlineStr">
         <is>
-          <t>style</t>
+          <t>non-ordinary</t>
         </is>
       </c>
       <c r="BY1" s="1" t="inlineStr">
         <is>
-          <t>should</t>
+          <t>person</t>
         </is>
       </c>
       <c r="BZ1" s="1" t="inlineStr">
         <is>
-          <t>needs</t>
+          <t>greeks</t>
         </is>
       </c>
       <c r="CA1" s="1" t="inlineStr">
         <is>
-          <t>if</t>
+          <t>barriers</t>
         </is>
       </c>
       <c r="CB1" s="1" t="inlineStr">
         <is>
-          <t>power</t>
+          <t>economic</t>
         </is>
       </c>
       <c r="CC1" s="1" t="inlineStr">
         <is>
-          <t>“</t>
+          <t>knows</t>
         </is>
       </c>
       <c r="CD1" s="1" t="inlineStr">
         <is>
-          <t>”</t>
+          <t>creation</t>
         </is>
       </c>
       <c r="CE1" s="1" t="inlineStr">
         <is>
-          <t>when</t>
+          <t>gods</t>
         </is>
       </c>
       <c r="CF1" s="1" t="inlineStr">
         <is>
-          <t>behavior</t>
+          <t>greek</t>
         </is>
       </c>
       <c r="CG1" s="1" t="inlineStr">
         <is>
-          <t>appreciated</t>
+          <t>reality</t>
         </is>
       </c>
       <c r="CH1" s="1" t="inlineStr">
         <is>
-          <t>elementary</t>
+          <t>thinking</t>
         </is>
       </c>
       <c r="CI1" s="1" t="inlineStr">
@@ -867,1947 +867,1652 @@
       </c>
       <c r="CJ1" s="1" t="inlineStr">
         <is>
-          <t>non-ordinary</t>
+          <t>peck</t>
         </is>
       </c>
       <c r="CK1" s="1" t="inlineStr">
         <is>
-          <t>person</t>
+          <t>art</t>
         </is>
       </c>
       <c r="CL1" s="1" t="inlineStr">
         <is>
-          <t>reality</t>
+          <t>land</t>
         </is>
       </c>
       <c r="CM1" s="1" t="inlineStr">
         <is>
-          <t>peck</t>
+          <t>sea</t>
         </is>
       </c>
       <c r="CN1" s="1" t="inlineStr">
         <is>
-          <t>greeks</t>
+          <t>determine</t>
         </is>
       </c>
       <c r="CO1" s="1" t="inlineStr">
         <is>
-          <t>trojan</t>
+          <t>planning</t>
         </is>
       </c>
       <c r="CP1" s="1" t="inlineStr">
         <is>
-          <t>horse</t>
+          <t>developed</t>
         </is>
       </c>
       <c r="CQ1" s="1" t="inlineStr">
         <is>
-          <t>not</t>
+          <t>control</t>
         </is>
       </c>
       <c r="CR1" s="1" t="inlineStr">
         <is>
-          <t>why</t>
+          <t>ego</t>
         </is>
       </c>
       <c r="CS1" s="1" t="inlineStr">
         <is>
-          <t>thinking</t>
+          <t>keeping</t>
         </is>
       </c>
       <c r="CT1" s="1" t="inlineStr">
         <is>
-          <t>summer</t>
+          <t>may</t>
         </is>
       </c>
       <c r="CU1" s="1" t="inlineStr">
         <is>
-          <t>creation</t>
+          <t>turned</t>
         </is>
       </c>
       <c r="CV1" s="1" t="inlineStr">
         <is>
-          <t>or</t>
+          <t>experiences</t>
         </is>
       </c>
       <c r="CW1" s="1" t="inlineStr">
         <is>
-          <t>greek</t>
+          <t>activities</t>
         </is>
       </c>
       <c r="CX1" s="1" t="inlineStr">
         <is>
-          <t>gods</t>
+          <t>model</t>
         </is>
       </c>
       <c r="CY1" s="1" t="inlineStr">
         <is>
-          <t>isolate</t>
+          <t>personal</t>
         </is>
       </c>
       <c r="CZ1" s="1" t="inlineStr">
         <is>
-          <t>think</t>
+          <t>rideau</t>
         </is>
       </c>
       <c r="DA1" s="1" t="inlineStr">
         <is>
-          <t>about</t>
+          <t>talent</t>
         </is>
       </c>
       <c r="DB1" s="1" t="inlineStr">
         <is>
-          <t>peers</t>
+          <t>man</t>
         </is>
       </c>
       <c r="DC1" s="1" t="inlineStr">
         <is>
-          <t>where</t>
+          <t>ii</t>
         </is>
       </c>
       <c r="DD1" s="1" t="inlineStr">
         <is>
-          <t>champion</t>
+          <t>country</t>
         </is>
       </c>
       <c r="DE1" s="1" t="inlineStr">
         <is>
-          <t>talent</t>
+          <t>bibliography</t>
         </is>
       </c>
       <c r="DF1" s="1" t="inlineStr">
         <is>
-          <t>ii</t>
+          <t>swings</t>
         </is>
       </c>
       <c r="DG1" s="1" t="inlineStr">
         <is>
-          <t>country</t>
+          <t>synergistic</t>
         </is>
       </c>
       <c r="DH1" s="1" t="inlineStr">
         <is>
-          <t>man</t>
+          <t>stabilizing</t>
         </is>
       </c>
       <c r="DI1" s="1" t="inlineStr">
         <is>
-          <t>rideau</t>
+          <t>pp.</t>
         </is>
       </c>
       <c r="DJ1" s="1" t="inlineStr">
         <is>
-          <t>chess</t>
+          <t>anyone</t>
         </is>
       </c>
       <c r="DK1" s="1" t="inlineStr">
         <is>
-          <t>grows</t>
+          <t>short-change</t>
         </is>
       </c>
       <c r="DL1" s="1" t="inlineStr">
         <is>
-          <t>model</t>
+          <t>everybody</t>
         </is>
       </c>
       <c r="DM1" s="1" t="inlineStr">
         <is>
-          <t>knows</t>
+          <t>destroy</t>
         </is>
       </c>
       <c r="DN1" s="1" t="inlineStr">
         <is>
-          <t>economic</t>
+          <t>events</t>
         </is>
       </c>
       <c r="DO1" s="1" t="inlineStr">
         <is>
-          <t>barriers</t>
+          <t>putting</t>
         </is>
       </c>
       <c r="DP1" s="1" t="inlineStr">
         <is>
-          <t>planning</t>
+          <t>reconstructing</t>
         </is>
       </c>
       <c r="DQ1" s="1" t="inlineStr">
         <is>
-          <t>help</t>
+          <t>frustrating</t>
         </is>
       </c>
       <c r="DR1" s="1" t="inlineStr">
         <is>
-          <t>them</t>
+          <t>else</t>
         </is>
       </c>
       <c r="DS1" s="1" t="inlineStr">
         <is>
-          <t>happened</t>
+          <t>pursuit</t>
         </is>
       </c>
       <c r="DT1" s="1" t="inlineStr">
         <is>
-          <t>supermarket</t>
+          <t>educational</t>
         </is>
       </c>
       <c r="DU1" s="1" t="inlineStr">
         <is>
-          <t>bibliography</t>
+          <t>pp</t>
         </is>
       </c>
       <c r="DV1" s="1" t="inlineStr">
         <is>
-          <t>synergistic</t>
+          <t>intelligence</t>
         </is>
       </c>
       <c r="DW1" s="1" t="inlineStr">
         <is>
-          <t>ego</t>
+          <t>systems</t>
         </is>
       </c>
       <c r="DX1" s="1" t="inlineStr">
         <is>
-          <t>swings</t>
+          <t>1971</t>
         </is>
       </c>
       <c r="DY1" s="1" t="inlineStr">
         <is>
-          <t>stabilizing</t>
+          <t>john</t>
         </is>
       </c>
       <c r="DZ1" s="1" t="inlineStr">
         <is>
-          <t>control</t>
+          <t>california</t>
         </is>
       </c>
       <c r="EA1" s="1" t="inlineStr">
         <is>
-          <t>pp.</t>
+          <t>students</t>
         </is>
       </c>
       <c r="EB1" s="1" t="inlineStr">
         <is>
-          <t>iv</t>
+          <t>much</t>
         </is>
       </c>
       <c r="EC1" s="1" t="inlineStr">
         <is>
-          <t>our</t>
+          <t>effective</t>
         </is>
       </c>
       <c r="ED1" s="1" t="inlineStr">
         <is>
-          <t>works</t>
+          <t>community</t>
         </is>
       </c>
       <c r="EE1" s="1" t="inlineStr">
         <is>
-          <t>activities</t>
+          <t>weed</t>
         </is>
       </c>
       <c r="EF1" s="1" t="inlineStr">
         <is>
-          <t>world</t>
+          <t>talking</t>
         </is>
       </c>
       <c r="EG1" s="1" t="inlineStr">
         <is>
-          <t>developed</t>
+          <t>disposal</t>
         </is>
       </c>
       <c r="EH1" s="1" t="inlineStr">
         <is>
-          <t>intelligence</t>
+          <t>dispersal</t>
         </is>
       </c>
       <c r="EI1" s="1" t="inlineStr">
         <is>
-          <t>events</t>
+          <t>concealed</t>
         </is>
       </c>
       <c r="EJ1" s="1" t="inlineStr">
         <is>
-          <t>john</t>
+          <t>young</t>
         </is>
       </c>
       <c r="EK1" s="1" t="inlineStr">
         <is>
-          <t>keeping</t>
+          <t>setting</t>
         </is>
       </c>
       <c r="EL1" s="1" t="inlineStr">
         <is>
-          <t>may</t>
+          <t>visitation</t>
         </is>
       </c>
       <c r="EM1" s="1" t="inlineStr">
         <is>
-          <t>turned</t>
+          <t>editorial</t>
         </is>
       </c>
       <c r="EN1" s="1" t="inlineStr">
         <is>
-          <t>reconstructing</t>
+          <t>typewriter</t>
         </is>
       </c>
       <c r="EO1" s="1" t="inlineStr">
         <is>
-          <t>putting</t>
+          <t>joys</t>
         </is>
       </c>
       <c r="EP1" s="1" t="inlineStr">
         <is>
-          <t>pp</t>
+          <t>headaches</t>
         </is>
       </c>
       <c r="EQ1" s="1" t="inlineStr">
         <is>
-          <t>students</t>
+          <t>strive</t>
         </is>
       </c>
       <c r="ER1" s="1" t="inlineStr">
         <is>
-          <t>pursuit</t>
+          <t>manage</t>
         </is>
       </c>
       <c r="ES1" s="1" t="inlineStr">
         <is>
-          <t>educational</t>
+          <t>learn</t>
         </is>
       </c>
       <c r="ET1" s="1" t="inlineStr">
         <is>
-          <t>anyone</t>
+          <t>hardest</t>
         </is>
       </c>
       <c r="EU1" s="1" t="inlineStr">
         <is>
-          <t>frustrating</t>
+          <t>gift</t>
         </is>
       </c>
       <c r="EV1" s="1" t="inlineStr">
         <is>
-          <t>else</t>
+          <t>san</t>
         </is>
       </c>
       <c r="EW1" s="1" t="inlineStr">
         <is>
-          <t>california</t>
+          <t>remarks</t>
         </is>
       </c>
       <c r="EX1" s="1" t="inlineStr">
         <is>
+          <t>self</t>
+        </is>
+      </c>
+      <c r="EY1" s="1" t="inlineStr">
+        <is>
+          <t>relationship</t>
+        </is>
+      </c>
+      <c r="EZ1" s="1" t="inlineStr">
+        <is>
+          <t>practice</t>
+        </is>
+      </c>
+      <c r="FA1" s="1" t="inlineStr">
+        <is>
+          <t>opening</t>
+        </is>
+      </c>
+      <c r="FB1" s="1" t="inlineStr">
+        <is>
+          <t>president</t>
+        </is>
+      </c>
+      <c r="FC1" s="1" t="inlineStr">
+        <is>
+          <t>teachers</t>
+        </is>
+      </c>
+      <c r="FD1" s="1" t="inlineStr">
+        <is>
           <t>message</t>
         </is>
       </c>
-      <c r="EY1" s="1" t="inlineStr">
-        <is>
-          <t>opening</t>
-        </is>
-      </c>
-      <c r="EZ1" s="1" t="inlineStr">
-        <is>
-          <t>teachers</t>
-        </is>
-      </c>
-      <c r="FA1" s="1" t="inlineStr">
-        <is>
-          <t>determine</t>
-        </is>
-      </c>
-      <c r="FB1" s="1" t="inlineStr">
-        <is>
-          <t>president</t>
-        </is>
-      </c>
-      <c r="FC1" s="1" t="inlineStr">
-        <is>
-          <t>remarks</t>
-        </is>
-      </c>
-      <c r="FD1" s="1" t="inlineStr">
+      <c r="FE1" s="1" t="inlineStr">
         <is>
           <t>convention</t>
         </is>
       </c>
-      <c r="FE1" s="1" t="inlineStr">
-        <is>
-          <t>experiences</t>
-        </is>
-      </c>
       <c r="FF1" s="1" t="inlineStr">
         <is>
-          <t>personal</t>
+          <t>concept</t>
         </is>
       </c>
       <c r="FG1" s="1" t="inlineStr">
         <is>
-          <t>san</t>
+          <t>theory</t>
         </is>
       </c>
       <c r="FH1" s="1" t="inlineStr">
         <is>
-          <t>systems</t>
+          <t>one</t>
         </is>
       </c>
       <c r="FI1" s="1" t="inlineStr">
         <is>
-          <t>1971</t>
+          <t>contributors</t>
         </is>
       </c>
       <c r="FJ1" s="1" t="inlineStr">
         <is>
-          <t>clues</t>
+          <t>information</t>
         </is>
       </c>
       <c r="FK1" s="1" t="inlineStr">
         <is>
-          <t>deciding</t>
+          <t>grades</t>
         </is>
       </c>
       <c r="FL1" s="1" t="inlineStr">
         <is>
-          <t>guiding</t>
+          <t>preferred</t>
         </is>
       </c>
       <c r="FM1" s="1" t="inlineStr">
         <is>
-          <t>sea</t>
+          <t>davis</t>
         </is>
       </c>
       <c r="FN1" s="1" t="inlineStr">
         <is>
-          <t>land</t>
+          <t>questions</t>
         </is>
       </c>
       <c r="FO1" s="1" t="inlineStr">
         <is>
-          <t>art</t>
+          <t>bruch-morse</t>
         </is>
       </c>
       <c r="FP1" s="1" t="inlineStr">
         <is>
-          <t>preferred</t>
+          <t>society</t>
         </is>
       </c>
       <c r="FQ1" s="1" t="inlineStr">
         <is>
-          <t>information</t>
+          <t>youn</t>
         </is>
       </c>
       <c r="FR1" s="1" t="inlineStr">
         <is>
-          <t>contributors</t>
+          <t>materials</t>
         </is>
       </c>
       <c r="FS1" s="1" t="inlineStr">
         <is>
-          <t>society</t>
+          <t>developing</t>
         </is>
       </c>
       <c r="FT1" s="1" t="inlineStr">
         <is>
+          <t>curriculum</t>
+        </is>
+      </c>
+      <c r="FU1" s="1" t="inlineStr">
+        <is>
+          <t>attitudes</t>
+        </is>
+      </c>
+      <c r="FV1" s="1" t="inlineStr">
+        <is>
+          <t>study</t>
+        </is>
+      </c>
+      <c r="FW1" s="1" t="inlineStr">
+        <is>
+          <t>relating</t>
+        </is>
+      </c>
+      <c r="FX1" s="1" t="inlineStr">
+        <is>
+          <t>women</t>
+        </is>
+      </c>
+      <c r="FY1" s="1" t="inlineStr">
+        <is>
+          <t>productive</t>
+        </is>
+      </c>
+      <c r="FZ1" s="1" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="GA1" s="1" t="inlineStr">
+        <is>
+          <t>critical</t>
+        </is>
+      </c>
+      <c r="GB1" s="1" t="inlineStr">
+        <is>
+          <t>sad</t>
+        </is>
+      </c>
+      <c r="GC1" s="1" t="inlineStr">
+        <is>
+          <t>resource</t>
+        </is>
+      </c>
+      <c r="GD1" s="1" t="inlineStr">
+        <is>
+          <t>consider</t>
+        </is>
+      </c>
+      <c r="GE1" s="1" t="inlineStr">
+        <is>
+          <t>bringing</t>
+        </is>
+      </c>
+      <c r="GF1" s="1" t="inlineStr">
+        <is>
           <t>answers</t>
         </is>
       </c>
-      <c r="FU1" s="1" t="inlineStr">
-        <is>
-          <t>questions</t>
-        </is>
-      </c>
-      <c r="FV1" s="1" t="inlineStr">
-        <is>
-          <t>critical</t>
-        </is>
-      </c>
-      <c r="FW1" s="1" t="inlineStr">
+      <c r="GG1" s="1" t="inlineStr">
         <is>
           <t>sudsy</t>
         </is>
       </c>
-      <c r="FX1" s="1" t="inlineStr">
+      <c r="GH1" s="1" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="GI1" s="1" t="inlineStr">
+        <is>
+          <t>segments</t>
+        </is>
+      </c>
+      <c r="GJ1" s="1" t="inlineStr">
+        <is>
+          <t>serial</t>
+        </is>
+      </c>
+      <c r="GK1" s="1" t="inlineStr">
+        <is>
+          <t>six</t>
+        </is>
+      </c>
+      <c r="GL1" s="1" t="inlineStr">
         <is>
           <t>somewhat</t>
         </is>
       </c>
-      <c r="FY1" s="1" t="inlineStr">
-        <is>
-          <t>six</t>
-        </is>
-      </c>
-      <c r="FZ1" s="1" t="inlineStr">
-        <is>
-          <t>serial</t>
-        </is>
-      </c>
-      <c r="GA1" s="1" t="inlineStr">
-        <is>
-          <t>segments</t>
-        </is>
-      </c>
-      <c r="GB1" s="1" t="inlineStr">
-        <is>
-          <t>sad</t>
-        </is>
-      </c>
-      <c r="GC1" s="1" t="inlineStr">
-        <is>
-          <t>relating</t>
-        </is>
-      </c>
-      <c r="GD1" s="1" t="inlineStr">
+      <c r="GM1" s="1" t="inlineStr">
+        <is>
+          <t>retrieval</t>
+        </is>
+      </c>
+      <c r="GN1" s="1" t="inlineStr">
+        <is>
+          <t>project</t>
+        </is>
+      </c>
+      <c r="GO1" s="1" t="inlineStr">
+        <is>
+          <t>monte</t>
+        </is>
+      </c>
+      <c r="GP1" s="1" t="inlineStr">
         <is>
           <t>risk</t>
         </is>
       </c>
-      <c r="GE1" s="1" t="inlineStr">
-        <is>
-          <t>retrieval</t>
-        </is>
-      </c>
-      <c r="GF1" s="1" t="inlineStr">
-        <is>
-          <t>grades</t>
-        </is>
-      </c>
-      <c r="GG1" s="1" t="inlineStr">
-        <is>
-          <t>project</t>
-        </is>
-      </c>
-      <c r="GH1" s="1" t="inlineStr">
-        <is>
-          <t>monte</t>
-        </is>
-      </c>
-      <c r="GI1" s="1" t="inlineStr">
+      <c r="GQ1" s="1" t="inlineStr">
         <is>
           <t>el</t>
         </is>
       </c>
-      <c r="GJ1" s="1" t="inlineStr">
-        <is>
-          <t>one</t>
-        </is>
-      </c>
-      <c r="GK1" s="1" t="inlineStr">
-        <is>
-          <t>developing</t>
-        </is>
-      </c>
-      <c r="GL1" s="1" t="inlineStr">
-        <is>
-          <t>youn</t>
-        </is>
-      </c>
-      <c r="GM1" s="1" t="inlineStr">
-        <is>
-          <t>curriculum</t>
-        </is>
-      </c>
-      <c r="GN1" s="1" t="inlineStr">
-        <is>
-          <t>bruch-morse</t>
-        </is>
-      </c>
-      <c r="GO1" s="1" t="inlineStr">
-        <is>
-          <t>attitudes</t>
-        </is>
-      </c>
-      <c r="GP1" s="1" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
-      </c>
-      <c r="GQ1" s="1" t="inlineStr">
-        <is>
-          <t>consider</t>
-        </is>
-      </c>
       <c r="GR1" s="1" t="inlineStr">
         <is>
-          <t>bringing</t>
+          <t>means</t>
         </is>
       </c>
       <c r="GS1" s="1" t="inlineStr">
         <is>
-          <t>initial</t>
+          <t>meeting</t>
         </is>
       </c>
       <c r="GT1" s="1" t="inlineStr">
         <is>
-          <t>women</t>
+          <t>sun</t>
         </is>
       </c>
       <c r="GU1" s="1" t="inlineStr">
         <is>
-          <t>under</t>
+          <t>shine</t>
         </is>
       </c>
       <c r="GV1" s="1" t="inlineStr">
         <is>
-          <t>study</t>
+          <t>let</t>
         </is>
       </c>
       <c r="GW1" s="1" t="inlineStr">
         <is>
-          <t>productive</t>
+          <t>programming</t>
         </is>
       </c>
       <c r="GX1" s="1" t="inlineStr">
         <is>
-          <t>of</t>
+          <t>multi-cultural</t>
         </is>
       </c>
       <c r="GY1" s="1" t="inlineStr">
         <is>
-          <t>resource</t>
+          <t>identification</t>
         </is>
       </c>
       <c r="GZ1" s="1" t="inlineStr">
         <is>
-          <t>materials</t>
+          <t>city</t>
         </is>
       </c>
       <c r="HA1" s="1" t="inlineStr">
         <is>
-          <t>theory</t>
+          <t>changing</t>
         </is>
       </c>
       <c r="HB1" s="1" t="inlineStr">
         <is>
-          <t>self</t>
+          <t>canadian</t>
         </is>
       </c>
       <c r="HC1" s="1" t="inlineStr">
         <is>
-          <t>relationship</t>
+          <t>dry</t>
         </is>
       </c>
       <c r="HD1" s="1" t="inlineStr">
         <is>
+          <t>n't</t>
+        </is>
+      </c>
+      <c r="HE1" s="1" t="inlineStr">
+        <is>
+          <t>powers</t>
+        </is>
+      </c>
+      <c r="HF1" s="1" t="inlineStr">
+        <is>
+          <t>prime</t>
+        </is>
+      </c>
+      <c r="HG1" s="1" t="inlineStr">
+        <is>
+          <t>letthewell</t>
+        </is>
+      </c>
+      <c r="HH1" s="1" t="inlineStr">
+        <is>
+          <t>acknowledge</t>
+        </is>
+      </c>
+      <c r="HI1" s="1" t="inlineStr">
+        <is>
+          <t>among</t>
+        </is>
+      </c>
+      <c r="HJ1" s="1" t="inlineStr">
+        <is>
+          <t>disadvantaged</t>
+        </is>
+      </c>
+      <c r="HK1" s="1" t="inlineStr">
+        <is>
+          <t>run</t>
+        </is>
+      </c>
+      <c r="HL1" s="1" t="inlineStr">
+        <is>
           <t>leaders</t>
         </is>
       </c>
-      <c r="HE1" s="1" t="inlineStr">
-        <is>
-          <t>practice</t>
-        </is>
-      </c>
-      <c r="HF1" s="1" t="inlineStr">
-        <is>
-          <t>acknowledge</t>
-        </is>
-      </c>
-      <c r="HG1" s="1" t="inlineStr">
-        <is>
-          <t>among</t>
-        </is>
-      </c>
-      <c r="HH1" s="1" t="inlineStr">
-        <is>
-          <t>davis</t>
-        </is>
-      </c>
-      <c r="HI1" s="1" t="inlineStr">
-        <is>
-          <t>into</t>
-        </is>
-      </c>
-      <c r="HJ1" s="1" t="inlineStr">
-        <is>
-          <t>disadvantaged</t>
-        </is>
-      </c>
-      <c r="HK1" s="1" t="inlineStr">
+      <c r="HM1" s="1" t="inlineStr">
         <is>
           <t>recognize</t>
         </is>
       </c>
-      <c r="HL1" s="1" t="inlineStr">
-        <is>
-          <t>sun</t>
-        </is>
-      </c>
-      <c r="HM1" s="1" t="inlineStr">
-        <is>
-          <t>concept</t>
-        </is>
-      </c>
       <c r="HN1" s="1" t="inlineStr">
         <is>
-          <t>between</t>
+          <t>birds</t>
         </is>
       </c>
       <c r="HO1" s="1" t="inlineStr">
         <is>
-          <t>shine</t>
+          <t>created</t>
         </is>
       </c>
       <c r="HP1" s="1" t="inlineStr">
         <is>
-          <t>meeting</t>
+          <t>derogatorily</t>
         </is>
       </c>
       <c r="HQ1" s="1" t="inlineStr">
         <is>
-          <t>means</t>
+          <t>set</t>
         </is>
       </c>
       <c r="HR1" s="1" t="inlineStr">
         <is>
-          <t>let</t>
+          <t>interest</t>
         </is>
       </c>
       <c r="HS1" s="1" t="inlineStr">
         <is>
-          <t>weed</t>
+          <t>known</t>
         </is>
       </c>
       <c r="HT1" s="1" t="inlineStr">
         <is>
-          <t>editorial</t>
+          <t>sustained</t>
         </is>
       </c>
       <c r="HU1" s="1" t="inlineStr">
         <is>
-          <t>disposal</t>
+          <t>handicapped</t>
         </is>
       </c>
       <c r="HV1" s="1" t="inlineStr">
         <is>
-          <t>dispersal</t>
+          <t>name</t>
         </is>
       </c>
       <c r="HW1" s="1" t="inlineStr">
         <is>
-          <t>concealed</t>
+          <t>exceptional</t>
         </is>
       </c>
       <c r="HX1" s="1" t="inlineStr">
         <is>
-          <t>young</t>
+          <t>dollar</t>
         </is>
       </c>
       <c r="HY1" s="1" t="inlineStr">
         <is>
-          <t>typewriter</t>
+          <t>call</t>
         </is>
       </c>
       <c r="HZ1" s="1" t="inlineStr">
         <is>
-          <t>talking</t>
+          <t>attached</t>
         </is>
       </c>
       <c r="IA1" s="1" t="inlineStr">
         <is>
-          <t>joys</t>
+          <t>offered</t>
         </is>
       </c>
       <c r="IB1" s="1" t="inlineStr">
         <is>
-          <t>headaches</t>
+          <t>1,564</t>
         </is>
       </c>
       <c r="IC1" s="1" t="inlineStr">
         <is>
-          <t>programming</t>
+          <t>colleges</t>
         </is>
       </c>
       <c r="ID1" s="1" t="inlineStr">
         <is>
-          <t>run</t>
+          <t>courses</t>
         </is>
       </c>
       <c r="IE1" s="1" t="inlineStr">
         <is>
-          <t>prime</t>
+          <t>gifted—teacher</t>
         </is>
       </c>
       <c r="IF1" s="1" t="inlineStr">
         <is>
-          <t>powers</t>
+          <t>survey</t>
         </is>
       </c>
       <c r="IG1" s="1" t="inlineStr">
         <is>
-          <t>n't</t>
+          <t>universities</t>
         </is>
       </c>
       <c r="IH1" s="1" t="inlineStr">
         <is>
-          <t>multi-cultural</t>
+          <t>n.</t>
         </is>
       </c>
       <c r="II1" s="1" t="inlineStr">
         <is>
-          <t>identification</t>
+          <t>sign</t>
         </is>
       </c>
       <c r="IJ1" s="1" t="inlineStr">
         <is>
-          <t>city</t>
+          <t>educators</t>
         </is>
       </c>
       <c r="IK1" s="1" t="inlineStr">
         <is>
-          <t>changing</t>
+          <t>f.</t>
         </is>
       </c>
       <c r="IL1" s="1" t="inlineStr">
         <is>
-          <t>canadian</t>
+          <t>robert</t>
         </is>
       </c>
       <c r="IM1" s="1" t="inlineStr">
         <is>
-          <t>letthewell</t>
+          <t>career</t>
         </is>
       </c>
       <c r="IN1" s="1" t="inlineStr">
         <is>
-          <t>dry</t>
+          <t>years</t>
         </is>
       </c>
       <c r="IO1" s="1" t="inlineStr">
         <is>
-          <t>strive</t>
+          <t>pages</t>
         </is>
       </c>
       <c r="IP1" s="1" t="inlineStr">
         <is>
-          <t>what</t>
+          <t>twelve</t>
         </is>
       </c>
       <c r="IQ1" s="1" t="inlineStr">
         <is>
-          <t>universities</t>
+          <t>peak</t>
         </is>
       </c>
       <c r="IR1" s="1" t="inlineStr">
         <is>
-          <t>offered</t>
+          <t>patterns</t>
         </is>
       </c>
       <c r="IS1" s="1" t="inlineStr">
         <is>
-          <t>hardest</t>
+          <t>achievements</t>
         </is>
       </c>
       <c r="IT1" s="1" t="inlineStr">
         <is>
-          <t>gift</t>
+          <t>later</t>
         </is>
       </c>
       <c r="IU1" s="1" t="inlineStr">
         <is>
-          <t>1,564</t>
+          <t>rinehart</t>
         </is>
       </c>
       <c r="IV1" s="1" t="inlineStr">
         <is>
-          <t>courses</t>
+          <t>scott</t>
         </is>
       </c>
       <c r="IW1" s="1" t="inlineStr">
         <is>
-          <t>gifted—teacher</t>
+          <t>holt</t>
         </is>
       </c>
       <c r="IX1" s="1" t="inlineStr">
         <is>
-          <t>colleges</t>
+          <t>gary</t>
         </is>
       </c>
       <c r="IY1" s="1" t="inlineStr">
         <is>
-          <t>learn</t>
+          <t>winston</t>
         </is>
       </c>
       <c r="IZ1" s="1" t="inlineStr">
         <is>
-          <t>manage</t>
+          <t>300</t>
         </is>
       </c>
       <c r="JA1" s="1" t="inlineStr">
         <is>
-          <t>survey</t>
+          <t>wiley</t>
         </is>
       </c>
       <c r="JB1" s="1" t="inlineStr">
         <is>
-          <t>n.</t>
+          <t>learning</t>
         </is>
       </c>
       <c r="JC1" s="1" t="inlineStr">
         <is>
-          <t>f.</t>
+          <t>sons</t>
         </is>
       </c>
       <c r="JD1" s="1" t="inlineStr">
         <is>
-          <t>effective</t>
+          <t>shouksmith</t>
         </is>
       </c>
       <c r="JE1" s="1" t="inlineStr">
         <is>
-          <t>years</t>
+          <t>240</t>
         </is>
       </c>
       <c r="JF1" s="1" t="inlineStr">
         <is>
-          <t>twelve</t>
+          <t>george</t>
         </is>
       </c>
       <c r="JG1" s="1" t="inlineStr">
         <is>
-          <t>peak</t>
+          <t>cognitive</t>
         </is>
       </c>
       <c r="JH1" s="1" t="inlineStr">
         <is>
-          <t>patterns</t>
+          <t>age</t>
         </is>
       </c>
       <c r="JI1" s="1" t="inlineStr">
         <is>
-          <t>pages</t>
+          <t>attitude</t>
         </is>
       </c>
       <c r="JJ1" s="1" t="inlineStr">
         <is>
-          <t>community</t>
+          <t>scores</t>
         </is>
       </c>
       <c r="JK1" s="1" t="inlineStr">
         <is>
-          <t>later</t>
+          <t>personality</t>
         </is>
       </c>
       <c r="JL1" s="1" t="inlineStr">
         <is>
-          <t>career</t>
+          <t>westley</t>
         </is>
       </c>
       <c r="JM1" s="1" t="inlineStr">
         <is>
-          <t>much</t>
+          <t>w.</t>
         </is>
       </c>
       <c r="JN1" s="1" t="inlineStr">
         <is>
-          <t>destroy</t>
+          <t>silent</t>
         </is>
       </c>
       <c r="JO1" s="1" t="inlineStr">
         <is>
-          <t>set</t>
+          <t>motivation</t>
         </is>
       </c>
       <c r="JP1" s="1" t="inlineStr">
         <is>
-          <t>short-change</t>
+          <t>majority</t>
         </is>
       </c>
       <c r="JQ1" s="1" t="inlineStr">
         <is>
-          <t>ourselves</t>
+          <t>jossey-bass</t>
         </is>
       </c>
       <c r="JR1" s="1" t="inlineStr">
         <is>
-          <t>robert</t>
+          <t>francisco</t>
         </is>
       </c>
       <c r="JS1" s="1" t="inlineStr">
         <is>
-          <t>everybody</t>
+          <t>epstein</t>
         </is>
       </c>
       <c r="JT1" s="1" t="inlineStr">
         <is>
-          <t>achievements</t>
+          <t>a.</t>
         </is>
       </c>
       <c r="JU1" s="1" t="inlineStr">
         <is>
-          <t>visitation</t>
+          <t>7.75</t>
         </is>
       </c>
       <c r="JV1" s="1" t="inlineStr">
         <is>
-          <t>too</t>
+          <t>200</t>
         </is>
       </c>
       <c r="JW1" s="1" t="inlineStr">
         <is>
-          <t>setting</t>
+          <t>eberle</t>
         </is>
       </c>
       <c r="JX1" s="1" t="inlineStr">
         <is>
-          <t>birds</t>
+          <t>scamper</t>
         </is>
       </c>
       <c r="JY1" s="1" t="inlineStr">
         <is>
-          <t>created</t>
+          <t>influence</t>
         </is>
       </c>
       <c r="JZ1" s="1" t="inlineStr">
         <is>
-          <t>most</t>
+          <t>income</t>
         </is>
       </c>
       <c r="KA1" s="1" t="inlineStr">
         <is>
-          <t>derogatorily</t>
+          <t>i.q</t>
         </is>
       </c>
       <c r="KB1" s="1" t="inlineStr">
         <is>
-          <t>known</t>
+          <t>given</t>
         </is>
       </c>
       <c r="KC1" s="1" t="inlineStr">
         <is>
-          <t>interest</t>
+          <t>variables</t>
         </is>
       </c>
       <c r="KD1" s="1" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>equal</t>
         </is>
       </c>
       <c r="KE1" s="1" t="inlineStr">
         <is>
-          <t>sustained</t>
+          <t>sex</t>
         </is>
       </c>
       <c r="KF1" s="1" t="inlineStr">
         <is>
-          <t>george</t>
+          <t>published</t>
         </is>
       </c>
       <c r="KG1" s="1" t="inlineStr">
         <is>
-          <t>shouksmith</t>
+          <t>e.</t>
         </is>
       </c>
       <c r="KH1" s="1" t="inlineStr">
         <is>
-          <t>sons</t>
+          <t>booklet</t>
         </is>
       </c>
       <c r="KI1" s="1" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>h.</t>
         </is>
       </c>
       <c r="KJ1" s="1" t="inlineStr">
         <is>
-          <t>wiley</t>
+          <t>paper</t>
         </is>
       </c>
       <c r="KK1" s="1" t="inlineStr">
         <is>
-          <t>cognitive</t>
+          <t>row</t>
         </is>
       </c>
       <c r="KL1" s="1" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>170</t>
         </is>
       </c>
       <c r="KM1" s="1" t="inlineStr">
         <is>
-          <t>scott</t>
+          <t>analysis</t>
         </is>
       </c>
       <c r="KN1" s="1" t="inlineStr">
         <is>
-          <t>gary</t>
+          <t>crovitz</t>
         </is>
       </c>
       <c r="KO1" s="1" t="inlineStr">
         <is>
-          <t>holt</t>
+          <t>galton</t>
         </is>
       </c>
       <c r="KP1" s="1" t="inlineStr">
         <is>
-          <t>rinehart</t>
+          <t>harper</t>
         </is>
       </c>
       <c r="KQ1" s="1" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>methods</t>
         </is>
       </c>
       <c r="KR1" s="1" t="inlineStr">
         <is>
-          <t>winston</t>
+          <t>walk</t>
         </is>
       </c>
       <c r="KS1" s="1" t="inlineStr">
         <is>
-          <t>scamper</t>
+          <t>1972</t>
         </is>
       </c>
       <c r="KT1" s="1" t="inlineStr">
         <is>
-          <t>eberle</t>
+          <t>c.</t>
         </is>
       </c>
       <c r="KU1" s="1" t="inlineStr">
         <is>
-          <t>epstein</t>
+          <t>calif.</t>
         </is>
       </c>
       <c r="KV1" s="1" t="inlineStr">
         <is>
-          <t>francisco</t>
+          <t>diego</t>
         </is>
       </c>
       <c r="KW1" s="1" t="inlineStr">
         <is>
-          <t>jossey-bass</t>
+          <t>gowan</t>
         </is>
       </c>
       <c r="KX1" s="1" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>individual</t>
         </is>
       </c>
       <c r="KY1" s="1" t="inlineStr">
         <is>
-          <t>a.</t>
+          <t>knapp</t>
         </is>
       </c>
       <c r="KZ1" s="1" t="inlineStr">
         <is>
-          <t>7.75</t>
+          <t>5.95</t>
         </is>
       </c>
       <c r="LA1" s="1" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>r.</t>
         </is>
       </c>
       <c r="LB1" s="1" t="inlineStr">
         <is>
-          <t>majority</t>
+          <t>plus</t>
         </is>
       </c>
       <c r="LC1" s="1" t="inlineStr">
         <is>
-          <t>silent</t>
+          <t>153</t>
         </is>
       </c>
       <c r="LD1" s="1" t="inlineStr">
         <is>
-          <t>w.</t>
+          <t>xvi</t>
         </is>
       </c>
       <c r="LE1" s="1" t="inlineStr">
         <is>
-          <t>westley</t>
+          <t>publisher</t>
         </is>
       </c>
       <c r="LF1" s="1" t="inlineStr">
         <is>
-          <t>learning</t>
+          <t>programs</t>
         </is>
       </c>
       <c r="LG1" s="1" t="inlineStr">
         <is>
-          <t>name</t>
+          <t>magary</t>
         </is>
       </c>
       <c r="LH1" s="1" t="inlineStr">
         <is>
-          <t>sex</t>
+          <t>principles</t>
         </is>
       </c>
       <c r="LI1" s="1" t="inlineStr">
         <is>
-          <t>attitude</t>
+          <t>sacramento</t>
         </is>
       </c>
       <c r="LJ1" s="1" t="inlineStr">
         <is>
-          <t>sign</t>
+          <t>curricula</t>
         </is>
       </c>
       <c r="LK1" s="1" t="inlineStr">
         <is>
-          <t>such</t>
+          <t>department</t>
         </is>
       </c>
       <c r="LL1" s="1" t="inlineStr">
         <is>
-          <t>variables</t>
+          <t>j.</t>
         </is>
       </c>
       <c r="LM1" s="1" t="inlineStr">
         <is>
-          <t>any</t>
+          <t>state</t>
         </is>
       </c>
       <c r="LN1" s="1" t="inlineStr">
         <is>
-          <t>attached</t>
+          <t>meeker</t>
         </is>
       </c>
       <c r="LO1" s="1" t="inlineStr">
         <is>
-          <t>call</t>
+          <t>mentally</t>
         </is>
       </c>
       <c r="LP1" s="1" t="inlineStr">
         <is>
-          <t>dollar</t>
+          <t>minors</t>
         </is>
       </c>
       <c r="LQ1" s="1" t="inlineStr">
         <is>
-          <t>educators</t>
+          <t>objectives</t>
         </is>
       </c>
       <c r="LR1" s="1" t="inlineStr">
         <is>
-          <t>exceptional</t>
+          <t>mary</t>
         </is>
       </c>
       <c r="LS1" s="1" t="inlineStr">
         <is>
-          <t>handicapped</t>
+          <t>525</t>
         </is>
       </c>
       <c r="LT1" s="1" t="inlineStr">
         <is>
-          <t>will</t>
+          <t>individualization</t>
         </is>
       </c>
       <c r="LU1" s="1" t="inlineStr">
         <is>
-          <t>scores</t>
+          <t>reid</t>
         </is>
       </c>
       <c r="LV1" s="1" t="inlineStr">
         <is>
-          <t>age</t>
+          <t>plenums</t>
         </is>
       </c>
       <c r="LW1" s="1" t="inlineStr">
         <is>
-          <t>h.</t>
+          <t>pamphlet</t>
         </is>
       </c>
       <c r="LX1" s="1" t="inlineStr">
         <is>
-          <t>motivation</t>
+          <t>minn.</t>
         </is>
       </c>
       <c r="LY1" s="1" t="inlineStr">
         <is>
-          <t>analysis</t>
+          <t>level</t>
         </is>
       </c>
       <c r="LZ1" s="1" t="inlineStr">
         <is>
-          <t>crovitz</t>
+          <t>lesson</t>
         </is>
       </c>
       <c r="MA1" s="1" t="inlineStr">
         <is>
-          <t>galton</t>
+          <t>instruction</t>
         </is>
       </c>
       <c r="MB1" s="1" t="inlineStr">
         <is>
-          <t>harper</t>
+          <t>center</t>
         </is>
       </c>
       <c r="MC1" s="1" t="inlineStr">
         <is>
-          <t>methods</t>
+          <t>hutchinson</t>
         </is>
       </c>
       <c r="MD1" s="1" t="inlineStr">
         <is>
-          <t>paper</t>
+          <t>conservation</t>
         </is>
       </c>
       <c r="ME1" s="1" t="inlineStr">
         <is>
-          <t>personality</t>
+          <t>box</t>
         </is>
       </c>
       <c r="MF1" s="1" t="inlineStr">
         <is>
-          <t>row</t>
+          <t>billed</t>
         </is>
       </c>
       <c r="MG1" s="1" t="inlineStr">
         <is>
-          <t>walk</t>
+          <t>avis</t>
         </is>
       </c>
       <c r="MH1" s="1" t="inlineStr">
         <is>
-          <t>influence</t>
+          <t>way</t>
         </is>
       </c>
       <c r="MI1" s="1" t="inlineStr">
         <is>
-          <t>income</t>
+          <t>using</t>
         </is>
       </c>
       <c r="MJ1" s="1" t="inlineStr">
         <is>
-          <t>i.q</t>
+          <t>55350</t>
         </is>
       </c>
       <c r="MK1" s="1" t="inlineStr">
         <is>
-          <t>given</t>
+          <t>differently</t>
         </is>
       </c>
       <c r="ML1" s="1" t="inlineStr">
         <is>
-          <t>equal</t>
+          <t>connally</t>
         </is>
       </c>
       <c r="MM1" s="1" t="inlineStr">
         <is>
-          <t>170</t>
+          <t>pre-primary</t>
         </is>
       </c>
       <c r="MN1" s="1" t="inlineStr">
         <is>
-          <t>this</t>
+          <t>lear</t>
         </is>
       </c>
       <c r="MO1" s="1" t="inlineStr">
         <is>
-          <t>booklet</t>
+          <t>belmont</t>
         </is>
       </c>
       <c r="MP1" s="1" t="inlineStr">
         <is>
-          <t>e.</t>
+          <t>conn.</t>
         </is>
       </c>
       <c r="MQ1" s="1" t="inlineStr">
         <is>
-          <t>published</t>
+          <t>60</t>
         </is>
       </c>
       <c r="MR1" s="1" t="inlineStr">
         <is>
-          <t>153</t>
+          <t>cal</t>
         </is>
       </c>
       <c r="MS1" s="1" t="inlineStr">
         <is>
-          <t>plus</t>
+          <t>chapters</t>
         </is>
       </c>
       <c r="MT1" s="1" t="inlineStr">
         <is>
-          <t>xvi</t>
+          <t>ditto</t>
         </is>
       </c>
       <c r="MU1" s="1" t="inlineStr">
         <is>
-          <t>5.95</t>
+          <t>div.</t>
         </is>
       </c>
       <c r="MV1" s="1" t="inlineStr">
         <is>
-          <t>r.</t>
+          <t>dr.</t>
         </is>
       </c>
       <c r="MW1" s="1" t="inlineStr">
         <is>
-          <t>publisher</t>
+          <t>06514</t>
         </is>
       </c>
       <c r="MX1" s="1" t="inlineStr">
         <is>
-          <t>1972</t>
+          <t>evaluating</t>
         </is>
       </c>
       <c r="MY1" s="1" t="inlineStr">
         <is>
-          <t>calif.</t>
+          <t>torrance</t>
         </is>
       </c>
       <c r="MZ1" s="1" t="inlineStr">
         <is>
-          <t>diego</t>
+          <t>teaching</t>
         </is>
       </c>
       <c r="NA1" s="1" t="inlineStr">
         <is>
-          <t>gowan</t>
+          <t>sigler</t>
         </is>
       </c>
       <c r="NB1" s="1" t="inlineStr">
         <is>
-          <t>knapp</t>
+          <t>four</t>
         </is>
       </c>
       <c r="NC1" s="1" t="inlineStr">
         <is>
-          <t>individual</t>
+          <t>paul</t>
         </is>
       </c>
       <c r="ND1" s="1" t="inlineStr">
         <is>
-          <t>c.</t>
+          <t>appendix</t>
         </is>
       </c>
       <c r="NE1" s="1" t="inlineStr">
         <is>
-          <t>curricula</t>
+          <t>annotated</t>
         </is>
       </c>
       <c r="NF1" s="1" t="inlineStr">
         <is>
-          <t>magary</t>
+          <t>also</t>
         </is>
       </c>
       <c r="NG1" s="1" t="inlineStr">
         <is>
-          <t>department</t>
+          <t>minisystems</t>
         </is>
       </c>
       <c r="NH1" s="1" t="inlineStr">
         <is>
-          <t>j.</t>
+          <t>eight</t>
         </is>
       </c>
       <c r="NI1" s="1" t="inlineStr">
         <is>
-          <t>programs</t>
+          <t>hamden</t>
         </is>
       </c>
       <c r="NJ1" s="1" t="inlineStr">
         <is>
-          <t>meeker</t>
+          <t>imagine</t>
         </is>
       </c>
       <c r="NK1" s="1" t="inlineStr">
         <is>
-          <t>mentally</t>
+          <t>intermediate</t>
         </is>
       </c>
       <c r="NL1" s="1" t="inlineStr">
         <is>
-          <t>minors</t>
+          <t>designed</t>
         </is>
       </c>
       <c r="NM1" s="1" t="inlineStr">
         <is>
-          <t>objectives</t>
+          <t>material</t>
         </is>
       </c>
       <c r="NN1" s="1" t="inlineStr">
         <is>
-          <t>state</t>
+          <t>pkwy.</t>
         </is>
       </c>
       <c r="NO1" s="1" t="inlineStr">
         <is>
-          <t>principles</t>
+          <t>94002</t>
         </is>
       </c>
       <c r="NP1" s="1" t="inlineStr">
         <is>
-          <t>sacramento</t>
+          <t>primary</t>
         </is>
       </c>
       <c r="NQ1" s="1" t="inlineStr">
         <is>
-          <t>mary</t>
+          <t>rogers</t>
         </is>
       </c>
       <c r="NR1" s="1" t="inlineStr">
         <is>
-          <t>individualization</t>
+          <t>corp.</t>
         </is>
       </c>
       <c r="NS1" s="1" t="inlineStr">
         <is>
-          <t>instruction</t>
+          <t>similar</t>
         </is>
       </c>
       <c r="NT1" s="1" t="inlineStr">
         <is>
-          <t>center</t>
+          <t>stimulate</t>
         </is>
       </c>
       <c r="NU1" s="1" t="inlineStr">
         <is>
-          <t>hutchinson</t>
+          <t>supplements</t>
         </is>
       </c>
       <c r="NV1" s="1" t="inlineStr">
         <is>
-          <t>conservation</t>
+          <t>parents</t>
         </is>
       </c>
       <c r="NW1" s="1" t="inlineStr">
         <is>
-          <t>way</t>
+          <t>eliminate</t>
         </is>
       </c>
       <c r="NX1" s="1" t="inlineStr">
         <is>
-          <t>box</t>
+          <t>imagination</t>
         </is>
       </c>
       <c r="NY1" s="1" t="inlineStr">
         <is>
-          <t>billed</t>
+          <t>14215</t>
         </is>
       </c>
       <c r="NZ1" s="1" t="inlineStr">
         <is>
-          <t>avis</t>
+          <t>inc.</t>
         </is>
       </c>
       <c r="OA1" s="1" t="inlineStr">
         <is>
-          <t>55350</t>
+          <t>k.</t>
         </is>
       </c>
       <c r="OB1" s="1" t="inlineStr">
         <is>
-          <t>525</t>
+          <t>method</t>
         </is>
       </c>
       <c r="OC1" s="1" t="inlineStr">
         <is>
-          <t>level</t>
+          <t>modify</t>
         </is>
       </c>
       <c r="OD1" s="1" t="inlineStr">
         <is>
-          <t>lesson</t>
+          <t>delavan</t>
         </is>
       </c>
       <c r="OE1" s="1" t="inlineStr">
         <is>
-          <t>minn.</t>
+          <t>preschool</t>
         </is>
       </c>
       <c r="OF1" s="1" t="inlineStr">
         <is>
-          <t>pamphlet</t>
+          <t>priming</t>
         </is>
       </c>
       <c r="OG1" s="1" t="inlineStr">
         <is>
-          <t>plenums</t>
+          <t>publishing</t>
         </is>
       </c>
       <c r="OH1" s="1" t="inlineStr">
         <is>
-          <t>reid</t>
+          <t>put</t>
         </is>
       </c>
       <c r="OI1" s="1" t="inlineStr">
         <is>
-          <t>using</t>
+          <t>really</t>
         </is>
       </c>
       <c r="OJ1" s="1" t="inlineStr">
         <is>
-          <t>connally</t>
+          <t>rearrange</t>
         </is>
       </c>
       <c r="OK1" s="1" t="inlineStr">
         <is>
-          <t>conn.</t>
+          <t>d.</t>
         </is>
       </c>
       <c r="OL1" s="1" t="inlineStr">
         <is>
-          <t>parents</t>
+          <t>seen</t>
         </is>
       </c>
       <c r="OM1" s="1" t="inlineStr">
         <is>
-          <t>there</t>
+          <t>substitute</t>
         </is>
       </c>
       <c r="ON1" s="1" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>suitable</t>
         </is>
       </c>
       <c r="OO1" s="1" t="inlineStr">
         <is>
-          <t>94002</t>
+          <t>useful</t>
         </is>
       </c>
       <c r="OP1" s="1" t="inlineStr">
         <is>
-          <t>also</t>
+          <t>uses</t>
         </is>
       </c>
       <c r="OQ1" s="1" t="inlineStr">
         <is>
-          <t>annotated</t>
+          <t>cueing</t>
         </is>
       </c>
       <c r="OR1" s="1" t="inlineStr">
         <is>
-          <t>appendix</t>
+          <t>combine</t>
         </is>
       </c>
       <c r="OS1" s="1" t="inlineStr">
         <is>
-          <t>belmont</t>
+          <t>buffalo</t>
         </is>
       </c>
       <c r="OT1" s="1" t="inlineStr">
         <is>
-          <t>cal</t>
+          <t>booklets</t>
         </is>
       </c>
       <c r="OU1" s="1" t="inlineStr">
         <is>
-          <t>torrance</t>
+          <t>best</t>
         </is>
       </c>
       <c r="OV1" s="1" t="inlineStr">
         <is>
-          <t>teaching</t>
+          <t>ave.</t>
         </is>
       </c>
       <c r="OW1" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>adapt</t>
         </is>
       </c>
       <c r="OX1" s="1" t="inlineStr">
         <is>
-          <t>sigler</t>
+          <t>acronym</t>
         </is>
       </c>
       <c r="OY1" s="1" t="inlineStr">
         <is>
-          <t>pre-primary</t>
+          <t>771</t>
         </is>
       </c>
       <c r="OZ1" s="1" t="inlineStr">
         <is>
-          <t>paul</t>
+          <t>62</t>
         </is>
       </c>
       <c r="PA1" s="1" t="inlineStr">
         <is>
-          <t>chapters</t>
-        </is>
-      </c>
-      <c r="PB1" s="1" t="inlineStr">
-        <is>
-          <t>lear</t>
-        </is>
-      </c>
-      <c r="PC1" s="1" t="inlineStr">
-        <is>
-          <t>four</t>
-        </is>
-      </c>
-      <c r="PD1" s="1" t="inlineStr">
-        <is>
-          <t>evaluating</t>
-        </is>
-      </c>
-      <c r="PE1" s="1" t="inlineStr">
-        <is>
-          <t>dr.</t>
-        </is>
-      </c>
-      <c r="PF1" s="1" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="PG1" s="1" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="PH1" s="1" t="inlineStr">
-        <is>
-          <t>ditto</t>
-        </is>
-      </c>
-      <c r="PI1" s="1" t="inlineStr">
-        <is>
-          <t>imagine</t>
-        </is>
-      </c>
-      <c r="PJ1" s="1" t="inlineStr">
-        <is>
-          <t>corp.</t>
-        </is>
-      </c>
-      <c r="PK1" s="1" t="inlineStr">
-        <is>
-          <t>designed</t>
-        </is>
-      </c>
-      <c r="PL1" s="1" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
-      </c>
-      <c r="PM1" s="1" t="inlineStr">
-        <is>
-          <t>differently</t>
-        </is>
-      </c>
-      <c r="PN1" s="1" t="inlineStr">
-        <is>
-          <t>don</t>
-        </is>
-      </c>
-      <c r="PO1" s="1" t="inlineStr">
-        <is>
-          <t>eight</t>
-        </is>
-      </c>
-      <c r="PP1" s="1" t="inlineStr">
-        <is>
-          <t>06514</t>
-        </is>
-      </c>
-      <c r="PQ1" s="1" t="inlineStr">
-        <is>
-          <t>hamden</t>
-        </is>
-      </c>
-      <c r="PR1" s="1" t="inlineStr">
-        <is>
-          <t>intermediate</t>
-        </is>
-      </c>
-      <c r="PS1" s="1" t="inlineStr">
-        <is>
-          <t>that</t>
-        </is>
-      </c>
-      <c r="PT1" s="1" t="inlineStr">
-        <is>
-          <t>material</t>
-        </is>
-      </c>
-      <c r="PU1" s="1" t="inlineStr">
-        <is>
-          <t>minisystems</t>
-        </is>
-      </c>
-      <c r="PV1" s="1" t="inlineStr">
-        <is>
-          <t>pkwy.</t>
-        </is>
-      </c>
-      <c r="PW1" s="1" t="inlineStr">
-        <is>
-          <t>primary</t>
-        </is>
-      </c>
-      <c r="PX1" s="1" t="inlineStr">
-        <is>
-          <t>rogers</t>
-        </is>
-      </c>
-      <c r="PY1" s="1" t="inlineStr">
-        <is>
-          <t>similar</t>
-        </is>
-      </c>
-      <c r="PZ1" s="1" t="inlineStr">
-        <is>
-          <t>stimulate</t>
-        </is>
-      </c>
-      <c r="QA1" s="1" t="inlineStr">
-        <is>
-          <t>supplements</t>
-        </is>
-      </c>
-      <c r="QB1" s="1" t="inlineStr">
-        <is>
-          <t>div.</t>
-        </is>
-      </c>
-      <c r="QC1" s="1" t="inlineStr">
-        <is>
-          <t>d.</t>
-        </is>
-      </c>
-      <c r="QD1" s="1" t="inlineStr">
-        <is>
-          <t>delavan</t>
-        </is>
-      </c>
-      <c r="QE1" s="1" t="inlineStr">
-        <is>
-          <t>rearrange</t>
-        </is>
-      </c>
-      <c r="QF1" s="1" t="inlineStr">
-        <is>
-          <t>cueing</t>
-        </is>
-      </c>
-      <c r="QG1" s="1" t="inlineStr">
-        <is>
-          <t>eliminate</t>
-        </is>
-      </c>
-      <c r="QH1" s="1" t="inlineStr">
-        <is>
-          <t>combine</t>
-        </is>
-      </c>
-      <c r="QI1" s="1" t="inlineStr">
-        <is>
-          <t>inc.</t>
-        </is>
-      </c>
-      <c r="QJ1" s="1" t="inlineStr">
-        <is>
-          <t>k.</t>
-        </is>
-      </c>
-      <c r="QK1" s="1" t="inlineStr">
-        <is>
-          <t>method</t>
-        </is>
-      </c>
-      <c r="QL1" s="1" t="inlineStr">
-        <is>
-          <t>modify</t>
-        </is>
-      </c>
-      <c r="QM1" s="1" t="inlineStr">
-        <is>
           <t>o.</t>
-        </is>
-      </c>
-      <c r="QN1" s="1" t="inlineStr">
-        <is>
-          <t>preschool</t>
-        </is>
-      </c>
-      <c r="QO1" s="1" t="inlineStr">
-        <is>
-          <t>priming</t>
-        </is>
-      </c>
-      <c r="QP1" s="1" t="inlineStr">
-        <is>
-          <t>publishing</t>
-        </is>
-      </c>
-      <c r="QQ1" s="1" t="inlineStr">
-        <is>
-          <t>put</t>
-        </is>
-      </c>
-      <c r="QR1" s="1" t="inlineStr">
-        <is>
-          <t>really</t>
-        </is>
-      </c>
-      <c r="QS1" s="1" t="inlineStr">
-        <is>
-          <t>buffalo</t>
-        </is>
-      </c>
-      <c r="QT1" s="1" t="inlineStr">
-        <is>
-          <t>14215</t>
-        </is>
-      </c>
-      <c r="QU1" s="1" t="inlineStr">
-        <is>
-          <t>seen</t>
-        </is>
-      </c>
-      <c r="QV1" s="1" t="inlineStr">
-        <is>
-          <t>substitute</t>
-        </is>
-      </c>
-      <c r="QW1" s="1" t="inlineStr">
-        <is>
-          <t>suitable</t>
-        </is>
-      </c>
-      <c r="QX1" s="1" t="inlineStr">
-        <is>
-          <t>useful</t>
-        </is>
-      </c>
-      <c r="QY1" s="1" t="inlineStr">
-        <is>
-          <t>uses</t>
-        </is>
-      </c>
-      <c r="QZ1" s="1" t="inlineStr">
-        <is>
-          <t>y</t>
-        </is>
-      </c>
-      <c r="RA1" s="1" t="inlineStr">
-        <is>
-          <t>booklets</t>
-        </is>
-      </c>
-      <c r="RB1" s="1" t="inlineStr">
-        <is>
-          <t>best</t>
-        </is>
-      </c>
-      <c r="RC1" s="1" t="inlineStr">
-        <is>
-          <t>ave.</t>
-        </is>
-      </c>
-      <c r="RD1" s="1" t="inlineStr">
-        <is>
-          <t>adapt</t>
-        </is>
-      </c>
-      <c r="RE1" s="1" t="inlineStr">
-        <is>
-          <t>acronym</t>
-        </is>
-      </c>
-      <c r="RF1" s="1" t="inlineStr">
-        <is>
-          <t>771</t>
-        </is>
-      </c>
-      <c r="RG1" s="1" t="inlineStr">
-        <is>
-          <t>62</t>
-        </is>
-      </c>
-      <c r="RH1" s="1" t="inlineStr">
-        <is>
-          <t>imagination</t>
         </is>
       </c>
     </row>
@@ -2819,319 +2524,319 @@
         <v>1972</v>
       </c>
       <c r="C2" t="n">
-        <v>3.07</v>
+        <v>3.45</v>
       </c>
       <c r="D2" t="n">
-        <v>3</v>
+        <v>3.33</v>
       </c>
       <c r="E2" t="n">
-        <v>2.33</v>
+        <v>2.13</v>
       </c>
       <c r="F2" t="n">
-        <v>2.01</v>
+        <v>1.89</v>
       </c>
       <c r="G2" t="n">
-        <v>1.92</v>
+        <v>1.88</v>
       </c>
       <c r="H2" t="n">
-        <v>1.79</v>
+        <v>1.64</v>
       </c>
       <c r="I2" t="n">
-        <v>1.69</v>
+        <v>1.62</v>
       </c>
       <c r="J2" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="K2" t="n">
         <v>1.48</v>
-      </c>
-      <c r="K2" t="n">
-        <v>1.43</v>
       </c>
       <c r="L2" t="n">
         <v>1.42</v>
       </c>
       <c r="M2" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="N2" t="n">
-        <v>1.39</v>
+        <v>1.36</v>
       </c>
       <c r="O2" t="n">
-        <v>1.31</v>
+        <v>1.17</v>
       </c>
       <c r="P2" t="n">
-        <v>1.31</v>
+        <v>1.15</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.25</v>
+        <v>1.06</v>
       </c>
       <c r="R2" t="n">
-        <v>1.2</v>
+        <v>0.98</v>
       </c>
       <c r="S2" t="n">
-        <v>1.11</v>
+        <v>0.97</v>
       </c>
       <c r="T2" t="n">
-        <v>1.1</v>
+        <v>0.97</v>
       </c>
       <c r="U2" t="n">
-        <v>1.1</v>
+        <v>0.97</v>
       </c>
       <c r="V2" t="n">
-        <v>1.1</v>
+        <v>0.97</v>
       </c>
       <c r="W2" t="n">
-        <v>1.07</v>
+        <v>0.95</v>
       </c>
       <c r="X2" t="n">
-        <v>1.02</v>
+        <v>0.92</v>
       </c>
       <c r="Y2" t="n">
-        <v>1.01</v>
+        <v>0.92</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.97</v>
+        <v>0.91</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.97</v>
+        <v>0.91</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.96</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.9400000000000001</v>
+        <v>0.8900000000000001</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.9400000000000001</v>
+        <v>0.8600000000000001</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.93</v>
+        <v>0.8400000000000001</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.92</v>
+        <v>0.83</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.92</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.9</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.8999999999999999</v>
+        <v>0.77</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.89</v>
+        <v>0.76</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.8899999999999999</v>
+        <v>0.76</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.8800000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.84</v>
+        <v>0.76</v>
       </c>
       <c r="AN2" t="n">
-        <v>0.8300000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.8200000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AP2" t="n">
-        <v>0.8200000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AQ2" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.74</v>
       </c>
       <c r="AR2" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.72</v>
       </c>
       <c r="AS2" t="n">
-        <v>0.79</v>
+        <v>0.71</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU2" t="n">
-        <v>0.77</v>
+        <v>0.7</v>
       </c>
       <c r="AV2" t="n">
-        <v>0.74</v>
+        <v>0.7</v>
       </c>
       <c r="AW2" t="n">
-        <v>0.74</v>
+        <v>0.7</v>
       </c>
       <c r="AX2" t="n">
-        <v>0.74</v>
+        <v>0.67</v>
       </c>
       <c r="AY2" t="n">
-        <v>0.72</v>
+        <v>0.64</v>
       </c>
       <c r="AZ2" t="n">
-        <v>0.72</v>
+        <v>0.64</v>
       </c>
       <c r="BA2" t="n">
-        <v>0.72</v>
+        <v>0.62</v>
       </c>
       <c r="BB2" t="n">
-        <v>0.72</v>
+        <v>0.62</v>
       </c>
       <c r="BC2" t="n">
-        <v>0.72</v>
+        <v>0.61</v>
       </c>
       <c r="BD2" t="n">
-        <v>0.72</v>
+        <v>0.61</v>
       </c>
       <c r="BE2" t="n">
-        <v>0.72</v>
+        <v>0.61</v>
       </c>
       <c r="BF2" t="n">
-        <v>0.71</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="BG2" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="BH2" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="BI2" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="BJ2" t="n">
-        <v>0.7</v>
+        <v>0.59</v>
       </c>
       <c r="BK2" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.58</v>
       </c>
       <c r="BL2" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.58</v>
       </c>
       <c r="BM2" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.58</v>
       </c>
       <c r="BN2" t="n">
-        <v>0.6799999999999999</v>
+        <v>0.58</v>
       </c>
       <c r="BO2" t="n">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="BP2" t="n">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="BQ2" t="n">
-        <v>0.64</v>
+        <v>0.57</v>
       </c>
       <c r="BR2" t="n">
-        <v>0.63</v>
+        <v>0.57</v>
       </c>
       <c r="BS2" t="n">
-        <v>0.61</v>
+        <v>0.57</v>
       </c>
       <c r="BT2" t="n">
-        <v>0.6000000000000001</v>
+        <v>0.57</v>
       </c>
       <c r="BU2" t="n">
-        <v>0.6</v>
+        <v>0.57</v>
       </c>
       <c r="BV2" t="n">
-        <v>0.6</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="BW2" t="n">
-        <v>0.5900000000000001</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="BX2" t="n">
-        <v>0.5900000000000001</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="BY2" t="n">
-        <v>0.5800000000000001</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="BZ2" t="n">
-        <v>0.5800000000000001</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="CA2" t="n">
-        <v>0.58</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="CB2" t="n">
-        <v>0.58</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="CC2" t="n">
-        <v>0.5700000000000001</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="CD2" t="n">
-        <v>0.5700000000000001</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="CE2" t="n">
-        <v>0.5700000000000001</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="CF2" t="n">
-        <v>0.5700000000000001</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="CG2" t="n">
-        <v>0.57</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="CH2" t="n">
         <v>0.55</v>
       </c>
       <c r="CI2" t="n">
-        <v>0.54</v>
+        <v>0.55</v>
       </c>
       <c r="CJ2" t="n">
-        <v>0.54</v>
+        <v>0.55</v>
       </c>
       <c r="CK2" t="n">
-        <v>0.54</v>
+        <v>0.52</v>
       </c>
       <c r="CL2" t="n">
-        <v>0.54</v>
+        <v>0.52</v>
       </c>
       <c r="CM2" t="n">
-        <v>0.54</v>
+        <v>0.52</v>
       </c>
       <c r="CN2" t="n">
-        <v>0.54</v>
+        <v>0.51</v>
       </c>
       <c r="CO2" t="n">
-        <v>0.54</v>
+        <v>0.51</v>
       </c>
       <c r="CP2" t="n">
-        <v>0.54</v>
+        <v>0.51</v>
       </c>
       <c r="CQ2" t="n">
-        <v>0.53</v>
+        <v>0.51</v>
       </c>
       <c r="CR2" t="n">
-        <v>0.53</v>
+        <v>0.51</v>
       </c>
       <c r="CS2" t="n">
-        <v>0.53</v>
+        <v>0.51</v>
       </c>
       <c r="CT2" t="n">
-        <v>0.53</v>
+        <v>0.51</v>
       </c>
       <c r="CU2" t="n">
-        <v>0.52</v>
+        <v>0.51</v>
       </c>
       <c r="CV2" t="n">
-        <v>0.52</v>
+        <v>0.51</v>
       </c>
       <c r="CW2" t="n">
-        <v>0.52</v>
+        <v>0.51</v>
       </c>
       <c r="CX2" t="n">
-        <v>0.52</v>
+        <v>0.51</v>
       </c>
       <c r="CY2" t="n">
         <v>0.51</v>
       </c>
       <c r="CZ2" t="n">
-        <v>0.51</v>
+        <v>0.5</v>
       </c>
       <c r="DA2" t="n">
-        <v>0.51</v>
+        <v>0.5</v>
       </c>
       <c r="DB2" t="n">
-        <v>0.51</v>
+        <v>0.5</v>
       </c>
       <c r="DC2" t="n">
-        <v>0.51</v>
+        <v>0.5</v>
       </c>
       <c r="DD2" t="n">
         <v>0.5</v>
@@ -3140,118 +2845,118 @@
         <v>0.5</v>
       </c>
       <c r="DF2" t="n">
-        <v>0.5</v>
+        <v>0.49</v>
       </c>
       <c r="DG2" t="n">
-        <v>0.5</v>
+        <v>0.49</v>
       </c>
       <c r="DH2" t="n">
-        <v>0.5</v>
+        <v>0.49</v>
       </c>
       <c r="DI2" t="n">
-        <v>0.5</v>
+        <v>0.48</v>
       </c>
       <c r="DJ2" t="n">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="DK2" t="n">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="DL2" t="n">
-        <v>0.49</v>
+        <v>0.47</v>
       </c>
       <c r="DM2" t="n">
-        <v>0.49</v>
+        <v>0.47</v>
       </c>
       <c r="DN2" t="n">
-        <v>0.49</v>
+        <v>0.47</v>
       </c>
       <c r="DO2" t="n">
-        <v>0.49</v>
+        <v>0.47</v>
       </c>
       <c r="DP2" t="n">
-        <v>0.49</v>
+        <v>0.47</v>
       </c>
       <c r="DQ2" t="n">
-        <v>0.49</v>
+        <v>0.47</v>
       </c>
       <c r="DR2" t="n">
-        <v>0.49</v>
+        <v>0.47</v>
       </c>
       <c r="DS2" t="n">
-        <v>0.48</v>
+        <v>0.47</v>
       </c>
       <c r="DT2" t="n">
-        <v>0.48</v>
+        <v>0.47</v>
       </c>
       <c r="DU2" t="n">
         <v>0.47</v>
       </c>
       <c r="DV2" t="n">
-        <v>0.47</v>
+        <v>0.46</v>
       </c>
       <c r="DW2" t="n">
-        <v>0.47</v>
+        <v>0.46</v>
       </c>
       <c r="DX2" t="n">
-        <v>0.47</v>
+        <v>0.45</v>
       </c>
       <c r="DY2" t="n">
-        <v>0.47</v>
+        <v>0.45</v>
       </c>
       <c r="DZ2" t="n">
-        <v>0.47</v>
+        <v>0.45</v>
       </c>
       <c r="EA2" t="n">
-        <v>0.47</v>
+        <v>0.4400000000000001</v>
       </c>
       <c r="EB2" t="n">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="EC2" t="n">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="ED2" t="n">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="EE2" t="n">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="EF2" t="n">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="EG2" t="n">
-        <v>0.46</v>
+        <v>0.44</v>
       </c>
       <c r="EH2" t="n">
-        <v>0.46</v>
+        <v>0.44</v>
       </c>
       <c r="EI2" t="n">
-        <v>0.45</v>
+        <v>0.44</v>
       </c>
       <c r="EJ2" t="n">
-        <v>0.45</v>
+        <v>0.44</v>
       </c>
       <c r="EK2" t="n">
-        <v>0.45</v>
+        <v>0.44</v>
       </c>
       <c r="EL2" t="n">
-        <v>0.45</v>
+        <v>0.44</v>
       </c>
       <c r="EM2" t="n">
-        <v>0.45</v>
+        <v>0.44</v>
       </c>
       <c r="EN2" t="n">
-        <v>0.45</v>
+        <v>0.44</v>
       </c>
       <c r="EO2" t="n">
-        <v>0.45</v>
+        <v>0.44</v>
       </c>
       <c r="EP2" t="n">
-        <v>0.45</v>
+        <v>0.44</v>
       </c>
       <c r="EQ2" t="n">
-        <v>0.4400000000000001</v>
+        <v>0.44</v>
       </c>
       <c r="ER2" t="n">
         <v>0.44</v>
@@ -3266,7 +2971,7 @@
         <v>0.44</v>
       </c>
       <c r="EV2" t="n">
-        <v>0.44</v>
+        <v>0.43</v>
       </c>
       <c r="EW2" t="n">
         <v>0.43</v>
@@ -3299,7 +3004,7 @@
         <v>0.43</v>
       </c>
       <c r="FG2" t="n">
-        <v>0.42</v>
+        <v>0.43</v>
       </c>
       <c r="FH2" t="n">
         <v>0.42</v>
@@ -3335,106 +3040,106 @@
         <v>0.41</v>
       </c>
       <c r="FS2" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="FT2" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="FU2" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="FV2" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="FW2" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="FX2" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="FY2" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="FZ2" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="GA2" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="GB2" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="GC2" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="GD2" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="GE2" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="GF2" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="GG2" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="GH2" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="GI2" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="GJ2" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="GK2" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="GL2" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="GM2" t="n">
         <v>0.4</v>
       </c>
-      <c r="FT2" t="n">
+      <c r="GN2" t="n">
         <v>0.4</v>
       </c>
-      <c r="FU2" t="n">
+      <c r="GO2" t="n">
         <v>0.4</v>
       </c>
-      <c r="FV2" t="n">
+      <c r="GP2" t="n">
         <v>0.4</v>
       </c>
-      <c r="FW2" t="n">
+      <c r="GQ2" t="n">
         <v>0.4</v>
       </c>
-      <c r="FX2" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="FY2" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="FZ2" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="GA2" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="GB2" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="GC2" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="GD2" t="n">
+      <c r="GR2" t="n">
         <v>0.39</v>
       </c>
-      <c r="GE2" t="n">
+      <c r="GS2" t="n">
         <v>0.39</v>
       </c>
-      <c r="GF2" t="n">
+      <c r="GT2" t="n">
         <v>0.39</v>
       </c>
-      <c r="GG2" t="n">
+      <c r="GU2" t="n">
         <v>0.39</v>
       </c>
-      <c r="GH2" t="n">
+      <c r="GV2" t="n">
         <v>0.39</v>
       </c>
-      <c r="GI2" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="GJ2" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="GK2" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="GL2" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="GM2" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="GN2" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="GO2" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="GP2" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="GQ2" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="GR2" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="GS2" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="GT2" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="GU2" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="GV2" t="n">
-        <v>0.38</v>
-      </c>
       <c r="GW2" t="n">
-        <v>0.38</v>
+        <v>0.37</v>
       </c>
       <c r="GX2" t="n">
-        <v>0.38</v>
+        <v>0.37</v>
       </c>
       <c r="GY2" t="n">
-        <v>0.38</v>
+        <v>0.37</v>
       </c>
       <c r="GZ2" t="n">
-        <v>0.38</v>
+        <v>0.37</v>
       </c>
       <c r="HA2" t="n">
         <v>0.37</v>
@@ -3476,19 +3181,19 @@
         <v>0.37</v>
       </c>
       <c r="HN2" t="n">
-        <v>0.37</v>
+        <v>0.36</v>
       </c>
       <c r="HO2" t="n">
-        <v>0.37</v>
+        <v>0.36</v>
       </c>
       <c r="HP2" t="n">
-        <v>0.37</v>
+        <v>0.36</v>
       </c>
       <c r="HQ2" t="n">
-        <v>0.37</v>
+        <v>0.36</v>
       </c>
       <c r="HR2" t="n">
-        <v>0.37</v>
+        <v>0.36</v>
       </c>
       <c r="HS2" t="n">
         <v>0.36</v>
@@ -3497,28 +3202,28 @@
         <v>0.36</v>
       </c>
       <c r="HU2" t="n">
-        <v>0.36</v>
+        <v>0.35</v>
       </c>
       <c r="HV2" t="n">
-        <v>0.36</v>
+        <v>0.35</v>
       </c>
       <c r="HW2" t="n">
-        <v>0.36</v>
+        <v>0.35</v>
       </c>
       <c r="HX2" t="n">
-        <v>0.36</v>
+        <v>0.35</v>
       </c>
       <c r="HY2" t="n">
-        <v>0.36</v>
+        <v>0.35</v>
       </c>
       <c r="HZ2" t="n">
-        <v>0.36</v>
+        <v>0.35</v>
       </c>
       <c r="IA2" t="n">
-        <v>0.36</v>
+        <v>0.35</v>
       </c>
       <c r="IB2" t="n">
-        <v>0.36</v>
+        <v>0.35</v>
       </c>
       <c r="IC2" t="n">
         <v>0.35</v>
@@ -3545,699 +3250,522 @@
         <v>0.35</v>
       </c>
       <c r="IK2" t="n">
-        <v>0.35</v>
+        <v>0.33</v>
       </c>
       <c r="IL2" t="n">
-        <v>0.35</v>
+        <v>0.32</v>
       </c>
       <c r="IM2" t="n">
-        <v>0.35</v>
+        <v>0.32</v>
       </c>
       <c r="IN2" t="n">
-        <v>0.35</v>
+        <v>0.32</v>
       </c>
       <c r="IO2" t="n">
-        <v>0.34</v>
+        <v>0.32</v>
       </c>
       <c r="IP2" t="n">
-        <v>0.34</v>
+        <v>0.32</v>
       </c>
       <c r="IQ2" t="n">
-        <v>0.34</v>
+        <v>0.32</v>
       </c>
       <c r="IR2" t="n">
-        <v>0.34</v>
+        <v>0.32</v>
       </c>
       <c r="IS2" t="n">
-        <v>0.34</v>
+        <v>0.32</v>
       </c>
       <c r="IT2" t="n">
-        <v>0.34</v>
+        <v>0.32</v>
       </c>
       <c r="IU2" t="n">
-        <v>0.34</v>
+        <v>0.31</v>
       </c>
       <c r="IV2" t="n">
-        <v>0.34</v>
+        <v>0.31</v>
       </c>
       <c r="IW2" t="n">
-        <v>0.34</v>
+        <v>0.31</v>
       </c>
       <c r="IX2" t="n">
-        <v>0.34</v>
+        <v>0.31</v>
       </c>
       <c r="IY2" t="n">
-        <v>0.34</v>
+        <v>0.31</v>
       </c>
       <c r="IZ2" t="n">
-        <v>0.34</v>
+        <v>0.31</v>
       </c>
       <c r="JA2" t="n">
-        <v>0.34</v>
+        <v>0.3</v>
       </c>
       <c r="JB2" t="n">
-        <v>0.34</v>
+        <v>0.3</v>
       </c>
       <c r="JC2" t="n">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="JD2" t="n">
-        <v>0.32</v>
+        <v>0.3</v>
       </c>
       <c r="JE2" t="n">
-        <v>0.32</v>
+        <v>0.3</v>
       </c>
       <c r="JF2" t="n">
-        <v>0.32</v>
+        <v>0.3</v>
       </c>
       <c r="JG2" t="n">
-        <v>0.32</v>
+        <v>0.3</v>
       </c>
       <c r="JH2" t="n">
-        <v>0.32</v>
+        <v>0.28</v>
       </c>
       <c r="JI2" t="n">
-        <v>0.32</v>
+        <v>0.28</v>
       </c>
       <c r="JJ2" t="n">
-        <v>0.32</v>
+        <v>0.28</v>
       </c>
       <c r="JK2" t="n">
-        <v>0.32</v>
+        <v>0.28</v>
       </c>
       <c r="JL2" t="n">
-        <v>0.32</v>
+        <v>0.28</v>
       </c>
       <c r="JM2" t="n">
-        <v>0.32</v>
+        <v>0.28</v>
       </c>
       <c r="JN2" t="n">
-        <v>0.32</v>
+        <v>0.28</v>
       </c>
       <c r="JO2" t="n">
-        <v>0.32</v>
+        <v>0.28</v>
       </c>
       <c r="JP2" t="n">
-        <v>0.32</v>
+        <v>0.28</v>
       </c>
       <c r="JQ2" t="n">
-        <v>0.32</v>
+        <v>0.28</v>
       </c>
       <c r="JR2" t="n">
-        <v>0.32</v>
+        <v>0.28</v>
       </c>
       <c r="JS2" t="n">
-        <v>0.32</v>
+        <v>0.28</v>
       </c>
       <c r="JT2" t="n">
-        <v>0.32</v>
+        <v>0.28</v>
       </c>
       <c r="JU2" t="n">
-        <v>0.32</v>
+        <v>0.28</v>
       </c>
       <c r="JV2" t="n">
-        <v>0.32</v>
+        <v>0.28</v>
       </c>
       <c r="JW2" t="n">
-        <v>0.32</v>
+        <v>0.28</v>
       </c>
       <c r="JX2" t="n">
-        <v>0.31</v>
+        <v>0.28</v>
       </c>
       <c r="JY2" t="n">
-        <v>0.31</v>
+        <v>0.28</v>
       </c>
       <c r="JZ2" t="n">
-        <v>0.31</v>
+        <v>0.28</v>
       </c>
       <c r="KA2" t="n">
-        <v>0.31</v>
+        <v>0.28</v>
       </c>
       <c r="KB2" t="n">
-        <v>0.31</v>
+        <v>0.28</v>
       </c>
       <c r="KC2" t="n">
-        <v>0.31</v>
+        <v>0.28</v>
       </c>
       <c r="KD2" t="n">
-        <v>0.31</v>
+        <v>0.28</v>
       </c>
       <c r="KE2" t="n">
-        <v>0.31</v>
+        <v>0.28</v>
       </c>
       <c r="KF2" t="n">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="KG2" t="n">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="KH2" t="n">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="KI2" t="n">
-        <v>0.3</v>
+        <v>0.26</v>
       </c>
       <c r="KJ2" t="n">
-        <v>0.3</v>
+        <v>0.26</v>
       </c>
       <c r="KK2" t="n">
-        <v>0.3</v>
+        <v>0.26</v>
       </c>
       <c r="KL2" t="n">
-        <v>0.29</v>
+        <v>0.26</v>
       </c>
       <c r="KM2" t="n">
-        <v>0.29</v>
+        <v>0.26</v>
       </c>
       <c r="KN2" t="n">
-        <v>0.29</v>
+        <v>0.26</v>
       </c>
       <c r="KO2" t="n">
-        <v>0.29</v>
+        <v>0.26</v>
       </c>
       <c r="KP2" t="n">
-        <v>0.29</v>
+        <v>0.26</v>
       </c>
       <c r="KQ2" t="n">
-        <v>0.29</v>
+        <v>0.26</v>
       </c>
       <c r="KR2" t="n">
-        <v>0.29</v>
+        <v>0.26</v>
       </c>
       <c r="KS2" t="n">
-        <v>0.28</v>
+        <v>0.24</v>
       </c>
       <c r="KT2" t="n">
-        <v>0.28</v>
+        <v>0.24</v>
       </c>
       <c r="KU2" t="n">
-        <v>0.27</v>
+        <v>0.24</v>
       </c>
       <c r="KV2" t="n">
-        <v>0.27</v>
+        <v>0.24</v>
       </c>
       <c r="KW2" t="n">
-        <v>0.27</v>
+        <v>0.24</v>
       </c>
       <c r="KX2" t="n">
-        <v>0.27</v>
+        <v>0.24</v>
       </c>
       <c r="KY2" t="n">
-        <v>0.27</v>
+        <v>0.24</v>
       </c>
       <c r="KZ2" t="n">
-        <v>0.27</v>
+        <v>0.24</v>
       </c>
       <c r="LA2" t="n">
-        <v>0.27</v>
+        <v>0.24</v>
       </c>
       <c r="LB2" t="n">
-        <v>0.27</v>
+        <v>0.24</v>
       </c>
       <c r="LC2" t="n">
-        <v>0.27</v>
+        <v>0.24</v>
       </c>
       <c r="LD2" t="n">
-        <v>0.27</v>
+        <v>0.24</v>
       </c>
       <c r="LE2" t="n">
-        <v>0.27</v>
+        <v>0.24</v>
       </c>
       <c r="LF2" t="n">
-        <v>0.26</v>
+        <v>0.22</v>
       </c>
       <c r="LG2" t="n">
-        <v>0.26</v>
+        <v>0.22</v>
       </c>
       <c r="LH2" t="n">
-        <v>0.26</v>
+        <v>0.22</v>
       </c>
       <c r="LI2" t="n">
-        <v>0.26</v>
+        <v>0.22</v>
       </c>
       <c r="LJ2" t="n">
-        <v>0.26</v>
+        <v>0.22</v>
       </c>
       <c r="LK2" t="n">
-        <v>0.26</v>
+        <v>0.22</v>
       </c>
       <c r="LL2" t="n">
-        <v>0.26</v>
+        <v>0.22</v>
       </c>
       <c r="LM2" t="n">
-        <v>0.26</v>
+        <v>0.22</v>
       </c>
       <c r="LN2" t="n">
-        <v>0.26</v>
+        <v>0.22</v>
       </c>
       <c r="LO2" t="n">
-        <v>0.26</v>
+        <v>0.22</v>
       </c>
       <c r="LP2" t="n">
-        <v>0.26</v>
+        <v>0.22</v>
       </c>
       <c r="LQ2" t="n">
-        <v>0.26</v>
+        <v>0.22</v>
       </c>
       <c r="LR2" t="n">
-        <v>0.26</v>
+        <v>0.22</v>
       </c>
       <c r="LS2" t="n">
-        <v>0.26</v>
+        <v>0.2</v>
       </c>
       <c r="LT2" t="n">
-        <v>0.26</v>
+        <v>0.2</v>
       </c>
       <c r="LU2" t="n">
-        <v>0.26</v>
+        <v>0.2</v>
       </c>
       <c r="LV2" t="n">
-        <v>0.26</v>
+        <v>0.2</v>
       </c>
       <c r="LW2" t="n">
-        <v>0.26</v>
+        <v>0.2</v>
       </c>
       <c r="LX2" t="n">
-        <v>0.26</v>
+        <v>0.2</v>
       </c>
       <c r="LY2" t="n">
-        <v>0.26</v>
+        <v>0.2</v>
       </c>
       <c r="LZ2" t="n">
-        <v>0.26</v>
+        <v>0.2</v>
       </c>
       <c r="MA2" t="n">
-        <v>0.26</v>
+        <v>0.2</v>
       </c>
       <c r="MB2" t="n">
-        <v>0.26</v>
+        <v>0.2</v>
       </c>
       <c r="MC2" t="n">
-        <v>0.26</v>
+        <v>0.2</v>
       </c>
       <c r="MD2" t="n">
-        <v>0.26</v>
+        <v>0.2</v>
       </c>
       <c r="ME2" t="n">
-        <v>0.26</v>
+        <v>0.2</v>
       </c>
       <c r="MF2" t="n">
-        <v>0.26</v>
+        <v>0.2</v>
       </c>
       <c r="MG2" t="n">
-        <v>0.26</v>
+        <v>0.2</v>
       </c>
       <c r="MH2" t="n">
-        <v>0.26</v>
+        <v>0.2</v>
       </c>
       <c r="MI2" t="n">
-        <v>0.26</v>
+        <v>0.2</v>
       </c>
       <c r="MJ2" t="n">
-        <v>0.26</v>
+        <v>0.2</v>
       </c>
       <c r="MK2" t="n">
-        <v>0.26</v>
+        <v>0.18</v>
       </c>
       <c r="ML2" t="n">
-        <v>0.26</v>
+        <v>0.18</v>
       </c>
       <c r="MM2" t="n">
-        <v>0.26</v>
+        <v>0.18</v>
       </c>
       <c r="MN2" t="n">
-        <v>0.25</v>
+        <v>0.18</v>
       </c>
       <c r="MO2" t="n">
-        <v>0.25</v>
+        <v>0.18</v>
       </c>
       <c r="MP2" t="n">
-        <v>0.25</v>
+        <v>0.18</v>
       </c>
       <c r="MQ2" t="n">
-        <v>0.25</v>
+        <v>0.18</v>
       </c>
       <c r="MR2" t="n">
-        <v>0.24</v>
+        <v>0.18</v>
       </c>
       <c r="MS2" t="n">
-        <v>0.24</v>
+        <v>0.18</v>
       </c>
       <c r="MT2" t="n">
-        <v>0.24</v>
+        <v>0.18</v>
       </c>
       <c r="MU2" t="n">
-        <v>0.24</v>
+        <v>0.18</v>
       </c>
       <c r="MV2" t="n">
-        <v>0.24</v>
+        <v>0.18</v>
       </c>
       <c r="MW2" t="n">
-        <v>0.24</v>
+        <v>0.18</v>
       </c>
       <c r="MX2" t="n">
-        <v>0.24</v>
+        <v>0.18</v>
       </c>
       <c r="MY2" t="n">
-        <v>0.24</v>
+        <v>0.18</v>
       </c>
       <c r="MZ2" t="n">
-        <v>0.24</v>
+        <v>0.18</v>
       </c>
       <c r="NA2" t="n">
-        <v>0.24</v>
+        <v>0.18</v>
       </c>
       <c r="NB2" t="n">
-        <v>0.24</v>
+        <v>0.18</v>
       </c>
       <c r="NC2" t="n">
-        <v>0.24</v>
+        <v>0.18</v>
       </c>
       <c r="ND2" t="n">
-        <v>0.24</v>
+        <v>0.18</v>
       </c>
       <c r="NE2" t="n">
-        <v>0.22</v>
+        <v>0.18</v>
       </c>
       <c r="NF2" t="n">
-        <v>0.22</v>
+        <v>0.18</v>
       </c>
       <c r="NG2" t="n">
-        <v>0.22</v>
+        <v>0.18</v>
       </c>
       <c r="NH2" t="n">
-        <v>0.22</v>
+        <v>0.18</v>
       </c>
       <c r="NI2" t="n">
-        <v>0.22</v>
+        <v>0.18</v>
       </c>
       <c r="NJ2" t="n">
-        <v>0.22</v>
+        <v>0.18</v>
       </c>
       <c r="NK2" t="n">
-        <v>0.22</v>
+        <v>0.18</v>
       </c>
       <c r="NL2" t="n">
-        <v>0.22</v>
+        <v>0.18</v>
       </c>
       <c r="NM2" t="n">
-        <v>0.22</v>
+        <v>0.18</v>
       </c>
       <c r="NN2" t="n">
-        <v>0.22</v>
+        <v>0.18</v>
       </c>
       <c r="NO2" t="n">
-        <v>0.22</v>
+        <v>0.18</v>
       </c>
       <c r="NP2" t="n">
-        <v>0.22</v>
+        <v>0.18</v>
       </c>
       <c r="NQ2" t="n">
-        <v>0.22</v>
+        <v>0.18</v>
       </c>
       <c r="NR2" t="n">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="NS2" t="n">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="NT2" t="n">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="NU2" t="n">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="NV2" t="n">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="NW2" t="n">
-        <v>0.2</v>
+        <v>0.14</v>
       </c>
       <c r="NX2" t="n">
-        <v>0.2</v>
+        <v>0.14</v>
       </c>
       <c r="NY2" t="n">
-        <v>0.2</v>
+        <v>0.14</v>
       </c>
       <c r="NZ2" t="n">
-        <v>0.2</v>
+        <v>0.14</v>
       </c>
       <c r="OA2" t="n">
-        <v>0.2</v>
+        <v>0.14</v>
       </c>
       <c r="OB2" t="n">
-        <v>0.2</v>
+        <v>0.14</v>
       </c>
       <c r="OC2" t="n">
-        <v>0.2</v>
+        <v>0.14</v>
       </c>
       <c r="OD2" t="n">
-        <v>0.2</v>
+        <v>0.14</v>
       </c>
       <c r="OE2" t="n">
-        <v>0.2</v>
+        <v>0.14</v>
       </c>
       <c r="OF2" t="n">
-        <v>0.2</v>
+        <v>0.14</v>
       </c>
       <c r="OG2" t="n">
-        <v>0.2</v>
+        <v>0.14</v>
       </c>
       <c r="OH2" t="n">
-        <v>0.2</v>
+        <v>0.14</v>
       </c>
       <c r="OI2" t="n">
-        <v>0.2</v>
+        <v>0.14</v>
       </c>
       <c r="OJ2" t="n">
-        <v>0.16</v>
+        <v>0.14</v>
       </c>
       <c r="OK2" t="n">
-        <v>0.16</v>
+        <v>0.14</v>
       </c>
       <c r="OL2" t="n">
-        <v>0.16</v>
+        <v>0.14</v>
       </c>
       <c r="OM2" t="n">
-        <v>0.16</v>
+        <v>0.14</v>
       </c>
       <c r="ON2" t="n">
-        <v>0.16</v>
+        <v>0.14</v>
       </c>
       <c r="OO2" t="n">
-        <v>0.16</v>
+        <v>0.14</v>
       </c>
       <c r="OP2" t="n">
-        <v>0.16</v>
+        <v>0.14</v>
       </c>
       <c r="OQ2" t="n">
-        <v>0.16</v>
+        <v>0.14</v>
       </c>
       <c r="OR2" t="n">
-        <v>0.16</v>
+        <v>0.14</v>
       </c>
       <c r="OS2" t="n">
-        <v>0.16</v>
+        <v>0.14</v>
       </c>
       <c r="OT2" t="n">
-        <v>0.16</v>
+        <v>0.14</v>
       </c>
       <c r="OU2" t="n">
-        <v>0.16</v>
+        <v>0.14</v>
       </c>
       <c r="OV2" t="n">
-        <v>0.16</v>
+        <v>0.14</v>
       </c>
       <c r="OW2" t="n">
-        <v>0.16</v>
+        <v>0.14</v>
       </c>
       <c r="OX2" t="n">
-        <v>0.16</v>
+        <v>0.14</v>
       </c>
       <c r="OY2" t="n">
-        <v>0.16</v>
+        <v>0.14</v>
       </c>
       <c r="OZ2" t="n">
-        <v>0.16</v>
+        <v>0.14</v>
       </c>
       <c r="PA2" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="PB2" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="PC2" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="PD2" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="PE2" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="PF2" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="PG2" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="PH2" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="PI2" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="PJ2" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="PK2" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="PL2" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="PM2" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="PN2" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="PO2" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="PP2" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="PQ2" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="PR2" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="PS2" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="PT2" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="PU2" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="PV2" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="PW2" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="PX2" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="PY2" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="PZ2" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="QA2" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="QB2" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="QC2" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="QD2" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="QE2" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="QF2" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="QG2" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="QH2" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="QI2" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="QJ2" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="QK2" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="QL2" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="QM2" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="QN2" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="QO2" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="QP2" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="QQ2" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="QR2" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="QS2" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="QT2" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="QU2" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="QV2" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="QW2" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="QX2" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="QY2" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="QZ2" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="RA2" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="RB2" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="RC2" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="RD2" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="RE2" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="RF2" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="RG2" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="RH2" t="n">
         <v>0.14</v>
       </c>
     </row>
